--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251105_201541.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251105_201541.xlsx
@@ -4391,7 +4391,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
